--- a/data/trans_dic/IP16A12_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A12_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>19,82%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,94; 24,32</t>
+          <t>13,08; 33,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 20,23</t>
+          <t>10,62; 26,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,24; 19,1</t>
+          <t>14,12; 27,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>13,73%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,08; 33,58</t>
+          <t>9,94; 24,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,62; 26,88</t>
+          <t>5,76; 20,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,12; 27,37</t>
+          <t>9,24; 19,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A12_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A12_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>28,05%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,96; 40,52</t>
+          <t>19,61; 49,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,14; 40,73</t>
+          <t>10,95; 41,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,98; 37,01</t>
+          <t>18,91; 39,73</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>22,63%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,08; 33,58</t>
+          <t>15,23; 34,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,62; 26,88</t>
+          <t>13,14; 33,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,12; 27,37</t>
+          <t>16,02; 30,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>17,02%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,94; 24,32</t>
+          <t>9,08; 29,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 20,23</t>
+          <t>9,19; 30,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 19,1</t>
+          <t>10,84; 25,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>17,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>13,37%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,94; 25,87</t>
+          <t>9,92; 26,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,74; 21,71</t>
+          <t>3,55; 20,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,12; 22,31</t>
+          <t>8,32; 19,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20,47%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16,27%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15,62; 25,99</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11,63; 21,97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15,19; 22,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/IP16A12_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A12_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,61; 49,21</t>
+          <t>17,74; 46,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,95; 41,69</t>
+          <t>9,81; 39,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,91; 39,73</t>
+          <t>19,14; 40,89</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,23; 34,94</t>
+          <t>14,14; 35,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,14; 33,24</t>
+          <t>13,31; 32,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,02; 30,1</t>
+          <t>15,61; 30,41</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,08; 29,48</t>
+          <t>7,79; 29,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 30,15</t>
+          <t>9,39; 30,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,84; 25,07</t>
+          <t>10,37; 25,7</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,92; 26,55</t>
+          <t>9,7; 26,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 20,3</t>
+          <t>3,59; 19,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,32; 19,5</t>
+          <t>8,31; 19,62</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,62; 25,99</t>
+          <t>15,89; 26,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,63; 21,97</t>
+          <t>11,72; 22,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,19; 22,13</t>
+          <t>15,27; 22,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A12_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A12_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>27,42%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,74; 46,62</t>
+          <t>9,79; 39,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,81; 39,04</t>
+          <t>18,33; 45,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,14; 40,89</t>
+          <t>18,27; 39,38</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>22,34%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,14; 35,44</t>
+          <t>12,56; 33,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,31; 32,26</t>
+          <t>14,57; 34,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,61; 30,41</t>
+          <t>15,95; 30,41</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>16,86%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 29,32</t>
+          <t>7,82; 29,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,39; 30,66</t>
+          <t>7,46; 27,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,37; 25,7</t>
+          <t>10,07; 24,78</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>11,34%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,7; 26,63</t>
+          <t>1,38; 15,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 19,83</t>
+          <t>9,03; 26,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 19,62</t>
+          <t>5,09; 17,39</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>17,24%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,89; 26,16</t>
+          <t>8,61; 19,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,72; 22,01</t>
+          <t>15,64; 25,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,27; 22,26</t>
+          <t>12,8; 20,97</t>
         </is>
       </c>
     </row>
